--- a/archive/src/main/resources/template/importDeviceArchives.xlsx
+++ b/archive/src/main/resources/template/importDeviceArchives.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>设备名称</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>安装日期</t>
-  </si>
-  <si>
-    <t>楼盘名称</t>
   </si>
   <si>
     <t>标红的列为必填项</t>
@@ -987,7 +984,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1015,12 +1012,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
